--- a/data/trans_orig/Q4502_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q4502_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>126410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105890</v>
+        <v>107286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147281</v>
+        <v>146992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2164031195421152</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1812743569373899</v>
+        <v>0.1836644862694486</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2521332745512184</v>
+        <v>0.25163789841435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -764,19 +764,19 @@
         <v>169507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146983</v>
+        <v>144483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>194272</v>
+        <v>193925</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1837807684202435</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1593601049681411</v>
+        <v>0.1566494677647758</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2106306444910223</v>
+        <v>0.2102548964836813</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>285</v>
@@ -785,19 +785,19 @@
         <v>295917</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>268775</v>
+        <v>264913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>329395</v>
+        <v>329194</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.196430212919562</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1784131128028971</v>
+        <v>0.1758495721553389</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2186530948811163</v>
+        <v>0.2185197211388634</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>104668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86048</v>
+        <v>85945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122689</v>
+        <v>122876</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1791827644460976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1473066994320745</v>
+        <v>0.1471303811675587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2100326463753735</v>
+        <v>0.2103526558074196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>137</v>
@@ -835,19 +835,19 @@
         <v>144068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123964</v>
+        <v>122258</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167490</v>
+        <v>167500</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1561990400094934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1344022556660183</v>
+        <v>0.1325534536501264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1815939624031002</v>
+        <v>0.1816042504010676</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -856,19 +856,19 @@
         <v>248736</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217331</v>
+        <v>219092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>276746</v>
+        <v>279990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1651110692363977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1442646369541487</v>
+        <v>0.1454338134614856</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1837046523787563</v>
+        <v>0.1858578282609774</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>177851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>156231</v>
+        <v>157838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>200880</v>
+        <v>200946</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3044657416349736</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2674538282205663</v>
+        <v>0.2702060737716654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3438898732848913</v>
+        <v>0.3440028862477721</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>328</v>
@@ -906,19 +906,19 @@
         <v>341614</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>313535</v>
+        <v>313149</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>372834</v>
+        <v>370802</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3703803826069354</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3399366086802152</v>
+        <v>0.339517880344453</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4042297573601064</v>
+        <v>0.4020262795606269</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>497</v>
@@ -927,19 +927,19 @@
         <v>519465</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>484064</v>
+        <v>480677</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>555318</v>
+        <v>555449</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3448217222408428</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3213227888711185</v>
+        <v>0.3190744993935057</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3686207406345212</v>
+        <v>0.3687080515424421</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>27643</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18917</v>
+        <v>19518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38404</v>
+        <v>39409</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04732219310670139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03238498007948311</v>
+        <v>0.03341322595046983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06574388536433964</v>
+        <v>0.06746538782490698</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -977,19 +977,19 @@
         <v>70055</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55864</v>
+        <v>56389</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89994</v>
+        <v>88924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07595447589080367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06056835549052181</v>
+        <v>0.06113789445697224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09757195134331985</v>
+        <v>0.09641202803835866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -998,19 +998,19 @@
         <v>97698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80014</v>
+        <v>80256</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117277</v>
+        <v>119641</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06485219602712243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05311371064259716</v>
+        <v>0.05327407548042513</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07784883881247273</v>
+        <v>0.07941777276361078</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>147569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126151</v>
+        <v>127867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>167247</v>
+        <v>168766</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2526261812701122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2159599366886742</v>
+        <v>0.2188978795627834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2863129780175167</v>
+        <v>0.2889128659065288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>192</v>
@@ -1048,19 +1048,19 @@
         <v>197089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>175504</v>
+        <v>171796</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>223740</v>
+        <v>222297</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2136853330725241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1902830436815174</v>
+        <v>0.1862620999776135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2425808029808389</v>
+        <v>0.2410164210190089</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>341</v>
@@ -1069,19 +1069,19 @@
         <v>344658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>310336</v>
+        <v>312748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>374968</v>
+        <v>379506</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.228784799576075</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2060018436152258</v>
+        <v>0.2076023924281976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2489041192974768</v>
+        <v>0.2519164889577321</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>227387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202102</v>
+        <v>202913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>256267</v>
+        <v>256429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2111545039180412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1876743135441735</v>
+        <v>0.1884275041258007</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2379725997972363</v>
+        <v>0.2381232332829606</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -1194,19 +1194,19 @@
         <v>229632</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203404</v>
+        <v>203048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>256382</v>
+        <v>257397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2173521999641995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1925274417951014</v>
+        <v>0.1921899309716159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.242671838820178</v>
+        <v>0.2436333133658597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>445</v>
@@ -1215,19 +1215,19 @@
         <v>457019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>422067</v>
+        <v>419893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>494963</v>
+        <v>496594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.214223747799087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1978402776565309</v>
+        <v>0.1968211559523822</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2320096825110647</v>
+        <v>0.2327743111135871</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>252077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>226315</v>
+        <v>224235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281456</v>
+        <v>279337</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2340820114242496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2101590453999388</v>
+        <v>0.2082276259869738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2613630385619803</v>
+        <v>0.259395484146985</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>189</v>
@@ -1265,19 +1265,19 @@
         <v>194411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170463</v>
+        <v>171040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220243</v>
+        <v>221664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1840152858577573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1613472670563581</v>
+        <v>0.161894281626129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2084654053404637</v>
+        <v>0.2098103666932433</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>435</v>
@@ -1286,19 +1286,19 @@
         <v>446489</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>410305</v>
+        <v>410968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>482454</v>
+        <v>488300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2092877991969157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1923270473029948</v>
+        <v>0.1926376271358075</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2261461718671262</v>
+        <v>0.2288864710984477</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>354027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>323963</v>
+        <v>323238</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>383258</v>
+        <v>383866</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3287541746735995</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3008359592169662</v>
+        <v>0.3001625088266092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3558977698868049</v>
+        <v>0.3564621616042462</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>299</v>
@@ -1336,19 +1336,19 @@
         <v>308012</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>280234</v>
+        <v>277581</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>339538</v>
+        <v>338712</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2915414858705052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2652491550957796</v>
+        <v>0.2627377021389624</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3213814564659013</v>
+        <v>0.3206000597565399</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>645</v>
@@ -1357,19 +1357,19 @@
         <v>662040</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>617046</v>
+        <v>616824</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>707730</v>
+        <v>704769</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3103255817649562</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2892351785772041</v>
+        <v>0.289131006811215</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3317426744056008</v>
+        <v>0.3303546305112359</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>68767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54173</v>
+        <v>53387</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85815</v>
+        <v>86365</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06385780508872167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05030551084791588</v>
+        <v>0.04957550894535505</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07968870274806093</v>
+        <v>0.08019925098059863</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -1407,19 +1407,19 @@
         <v>71273</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55968</v>
+        <v>55791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89957</v>
+        <v>88391</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06746168495388738</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05297522677250447</v>
+        <v>0.05280757565825587</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08514678325861906</v>
+        <v>0.08366435532452153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1428,19 +1428,19 @@
         <v>140040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119614</v>
+        <v>117710</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164135</v>
+        <v>163875</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0656425305966853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05606804699099931</v>
+        <v>0.05517577790787305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0769370175051572</v>
+        <v>0.07681521726944628</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>174617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151229</v>
+        <v>153595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198976</v>
+        <v>199752</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.162151504895388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1404333953481876</v>
+        <v>0.1426304784251229</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1847717995843629</v>
+        <v>0.1854916506372354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>246</v>
@@ -1478,19 +1478,19 @@
         <v>253167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>224122</v>
+        <v>226710</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>281251</v>
+        <v>284513</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2396293433536507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2121368971032186</v>
+        <v>0.2145869413474707</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2662113671218012</v>
+        <v>0.2692991355568842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>418</v>
@@ -1499,19 +1499,19 @@
         <v>427784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>391184</v>
+        <v>391189</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>468843</v>
+        <v>464738</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2005203406423557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.183364075889365</v>
+        <v>0.183366761939617</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2197664648518632</v>
+        <v>0.2178421810214291</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>235543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>211023</v>
+        <v>209150</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>262738</v>
+        <v>264617</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2103846417546925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1884834893737072</v>
+        <v>0.1868112799646292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2346755011169414</v>
+        <v>0.2363538891923946</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>189</v>
@@ -1624,19 +1624,19 @@
         <v>192250</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167123</v>
+        <v>167539</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217922</v>
+        <v>217875</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1940540321503266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1686912408944408</v>
+        <v>0.1691111996443498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.219967081468</v>
+        <v>0.2199192535501601</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>423</v>
@@ -1645,19 +1645,19 @@
         <v>427793</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>391562</v>
+        <v>392261</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>463893</v>
+        <v>467417</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2027179998301951</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1855496163869508</v>
+        <v>0.1858805269837427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2198250372728953</v>
+        <v>0.221494751387204</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>269314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241625</v>
+        <v>240795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>299152</v>
+        <v>297956</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2405491254770572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2158173954666364</v>
+        <v>0.2150760509976933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2672001822525821</v>
+        <v>0.2661316077863589</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -1695,19 +1695,19 @@
         <v>189224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166448</v>
+        <v>163445</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216214</v>
+        <v>213980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1910000203388892</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1680095054974063</v>
+        <v>0.1649781765933466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.218242290681852</v>
+        <v>0.2159875757338605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>447</v>
@@ -1716,19 +1716,19 @@
         <v>458538</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423372</v>
+        <v>420661</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>496883</v>
+        <v>498927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2172875782368336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2006232481363219</v>
+        <v>0.1993387510278393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2354577802557648</v>
+        <v>0.2364265456347865</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>315543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>287582</v>
+        <v>284787</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>348689</v>
+        <v>346829</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2818401044317406</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2568653852908322</v>
+        <v>0.2543695177837133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.311445769029039</v>
+        <v>0.3097843127274602</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>238</v>
@@ -1766,19 +1766,19 @@
         <v>239974</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>214844</v>
+        <v>213172</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>268780</v>
+        <v>266502</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2422260281859074</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2168604204954765</v>
+        <v>0.21517272590553</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2713022149187607</v>
+        <v>0.2690031448333446</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>549</v>
@@ -1787,19 +1787,19 @@
         <v>555517</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>516796</v>
+        <v>517967</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>593549</v>
+        <v>598231</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2632427008378573</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2448939828150161</v>
+        <v>0.2454490081441567</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2812647675542069</v>
+        <v>0.2834834464512125</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>71939</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57544</v>
+        <v>57496</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90659</v>
+        <v>90549</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06425518902207751</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05139818448593558</v>
+        <v>0.05135484536371313</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08097557206935573</v>
+        <v>0.08087761178181915</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -1837,19 +1837,19 @@
         <v>79440</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61124</v>
+        <v>63930</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96683</v>
+        <v>98384</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08018565489812748</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06169712761123444</v>
+        <v>0.0645299846587295</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09759020272279359</v>
+        <v>0.09930680230062661</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>149</v>
@@ -1858,19 +1858,19 @@
         <v>151379</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>128109</v>
+        <v>128336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176320</v>
+        <v>174971</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07173397766016043</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06070683272366639</v>
+        <v>0.06081439642601228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08355263364696863</v>
+        <v>0.08291359200796647</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>227242</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202715</v>
+        <v>201026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255342</v>
+        <v>255658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2029709393144322</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1810634276130547</v>
+        <v>0.179554647852321</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2280691322574245</v>
+        <v>0.2283517552124069</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>292</v>
@@ -1908,19 +1908,19 @@
         <v>289815</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261917</v>
+        <v>258490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318454</v>
+        <v>315822</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2925342644267493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2643742336763588</v>
+        <v>0.2609152241156566</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.321442293698924</v>
+        <v>0.3187859168894289</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>512</v>
@@ -1929,19 +1929,19 @@
         <v>517057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479489</v>
+        <v>478421</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>560183</v>
+        <v>556203</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2450177434349536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2272154957361611</v>
+        <v>0.2267092542764793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2654540501836252</v>
+        <v>0.2635678009510041</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>117548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100783</v>
+        <v>98002</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>138384</v>
+        <v>136579</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2628524575550718</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2253637381190029</v>
+        <v>0.2191463063326719</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3094459729526295</v>
+        <v>0.3054094304442445</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -2054,19 +2054,19 @@
         <v>76531</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63100</v>
+        <v>62987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93103</v>
+        <v>92948</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2243276970663829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1849579503100539</v>
+        <v>0.184626074680208</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2729033321883444</v>
+        <v>0.2724492697334878</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>191</v>
@@ -2075,19 +2075,19 @@
         <v>194079</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>173602</v>
+        <v>170432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>220312</v>
+        <v>217225</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2461810476976654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2202076853853761</v>
+        <v>0.2161855585911638</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2794562421414712</v>
+        <v>0.2755411467080691</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>114536</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97173</v>
+        <v>95225</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>133674</v>
+        <v>133604</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2561173671995009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2172925350363271</v>
+        <v>0.2129367655534263</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2989132402642036</v>
+        <v>0.2987559743957974</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>70</v>
@@ -2125,19 +2125,19 @@
         <v>71651</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>58513</v>
+        <v>57225</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87764</v>
+        <v>86859</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2100240312282786</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1715141031699189</v>
+        <v>0.1677386717582693</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2572532525248986</v>
+        <v>0.2546016598758548</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>183</v>
@@ -2146,19 +2146,19 @@
         <v>186187</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>162969</v>
+        <v>162923</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>208665</v>
+        <v>210980</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2361706917127838</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2067201433506649</v>
+        <v>0.206660599126261</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2646834178143205</v>
+        <v>0.2676189863232191</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>108464</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>90829</v>
+        <v>89740</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>127839</v>
+        <v>127521</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2425398962159687</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2031053027570958</v>
+        <v>0.2006700382492868</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.285864775388487</v>
+        <v>0.2851543419835035</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>87</v>
@@ -2196,19 +2196,19 @@
         <v>85769</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>70811</v>
+        <v>71056</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101929</v>
+        <v>102687</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2514061249301228</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2075609550163093</v>
+        <v>0.2082782075484578</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2987725671072891</v>
+        <v>0.3009958009871416</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>193</v>
@@ -2217,19 +2217,19 @@
         <v>194233</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>170010</v>
+        <v>169223</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>219054</v>
+        <v>219134</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2463767152099912</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2156510636369774</v>
+        <v>0.2146520737435158</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2778615786309611</v>
+        <v>0.2779631514574278</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>26635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18675</v>
+        <v>17823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39173</v>
+        <v>39397</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0595590583305169</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04176025165611076</v>
+        <v>0.03985553918300816</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08759627479080627</v>
+        <v>0.08809717704267278</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -2267,19 +2267,19 @@
         <v>30867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22255</v>
+        <v>21347</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41988</v>
+        <v>41732</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09047622032193547</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06523323863351646</v>
+        <v>0.0625718262183991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1230757864134391</v>
+        <v>0.1223233246295171</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -2288,19 +2288,19 @@
         <v>57502</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44693</v>
+        <v>43464</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74180</v>
+        <v>74233</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07293831553156035</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0566906957607899</v>
+        <v>0.05513177419580678</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09409473289531566</v>
+        <v>0.0941610433054671</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>80018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>64171</v>
+        <v>64092</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96057</v>
+        <v>97557</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1789312206989417</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1434957656769858</v>
+        <v>0.1433182139924969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2147966038021621</v>
+        <v>0.2181517672705248</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>75</v>
@@ -2338,19 +2338,19 @@
         <v>76340</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62960</v>
+        <v>60763</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>94998</v>
+        <v>92969</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2237659264532803</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1845481450707268</v>
+        <v>0.1781094269610522</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2784561593000387</v>
+        <v>0.2725107811600054</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>152</v>
@@ -2359,19 +2359,19 @@
         <v>156358</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>134644</v>
+        <v>135537</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>179151</v>
+        <v>178760</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1983332298479993</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1707906179410529</v>
+        <v>0.1719231242026399</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2272460308743824</v>
+        <v>0.2267493145558215</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>706887</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>659032</v>
+        <v>657336</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>755732</v>
+        <v>755112</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2189998892852857</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2041738823799139</v>
+        <v>0.2036485492733528</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2341323347380882</v>
+        <v>0.2339402407024386</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>648</v>
@@ -2484,19 +2484,19 @@
         <v>667920</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>621503</v>
+        <v>623574</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>713150</v>
+        <v>718488</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2017464267511278</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1877260957835151</v>
+        <v>0.1883515328643357</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2154082945230836</v>
+        <v>0.2170206244038086</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1344</v>
@@ -2505,19 +2505,19 @@
         <v>1374807</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1310658</v>
+        <v>1312090</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1445555</v>
+        <v>1442703</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.210263791530396</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2004527450455506</v>
+        <v>0.2006718303245445</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2210840872519117</v>
+        <v>0.2206477736941714</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>740595</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>693340</v>
+        <v>692306</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>790282</v>
+        <v>784614</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.229442852447248</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.214802848687648</v>
+        <v>0.2144823545896467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2448363369986808</v>
+        <v>0.2430802866904892</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>578</v>
@@ -2555,19 +2555,19 @@
         <v>599355</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>556186</v>
+        <v>554496</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>647063</v>
+        <v>644021</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1810361638674167</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1679971077561557</v>
+        <v>0.1674864304899584</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1954465201836991</v>
+        <v>0.1945276365726828</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1305</v>
@@ -2576,19 +2576,19 @@
         <v>1339950</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1271715</v>
+        <v>1276214</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1404963</v>
+        <v>1407731</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2049326671678183</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1944968452432949</v>
+        <v>0.1951849055320255</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2148758567412387</v>
+        <v>0.2152991261709514</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>955885</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>896879</v>
+        <v>905205</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1003679</v>
+        <v>1006291</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2961415464193411</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2778610721008073</v>
+        <v>0.2804405826566395</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3109485558971765</v>
+        <v>0.3117579409112366</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>952</v>
@@ -2626,19 +2626,19 @@
         <v>975370</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>924631</v>
+        <v>923639</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1025068</v>
+        <v>1025374</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2946122113104905</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2792865045049638</v>
+        <v>0.2789869678722175</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3096236096643051</v>
+        <v>0.3097162235979218</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1884</v>
@@ -2647,19 +2647,19 @@
         <v>1931254</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1860209</v>
+        <v>1860836</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2008628</v>
+        <v>2006865</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2953671846942988</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2845015177039725</v>
+        <v>0.2845974114034959</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3072007975478341</v>
+        <v>0.3069311453829544</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>194983</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>169121</v>
+        <v>171479</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>224460</v>
+        <v>225000</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0604075792325158</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0523951998307392</v>
+        <v>0.05312564938692805</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06953958535596751</v>
+        <v>0.06970699744572513</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>247</v>
@@ -2697,19 +2697,19 @@
         <v>251635</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>220809</v>
+        <v>223289</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>281008</v>
+        <v>283022</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07600687093507028</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06669579835587165</v>
+        <v>0.06744496054531569</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08487907798056493</v>
+        <v>0.08548724310138828</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>439</v>
@@ -2718,19 +2718,19 @@
         <v>446619</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>409650</v>
+        <v>405395</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>491082</v>
+        <v>489747</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06830610609057451</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0626521604534744</v>
+        <v>0.06200140281293125</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07510638797518615</v>
+        <v>0.07490215889074524</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>629447</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>582741</v>
+        <v>588072</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>678133</v>
+        <v>676406</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1950081326156095</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1805383338103338</v>
+        <v>0.1821897641942529</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2100916140469186</v>
+        <v>0.2095564848433151</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>805</v>
@@ -2768,19 +2768,19 @@
         <v>816411</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>766763</v>
+        <v>768013</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>861563</v>
+        <v>867537</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2465983271358947</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2316021079952688</v>
+        <v>0.231979719022512</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2602367691695953</v>
+        <v>0.2620411879630227</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1423</v>
@@ -2789,19 +2789,19 @@
         <v>1445857</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1376026</v>
+        <v>1382250</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1512620</v>
+        <v>1515741</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2211302505169125</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2104502256574256</v>
+        <v>0.2114021899125769</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2313409649692122</v>
+        <v>0.2318183134696846</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>379885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>348321</v>
+        <v>346773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>411485</v>
+        <v>411161</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3642568116750571</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3339915546720779</v>
+        <v>0.3325071409390007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3945569923125071</v>
+        <v>0.3942458310392418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>356</v>
@@ -3154,19 +3154,19 @@
         <v>386591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>354287</v>
+        <v>354671</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>418453</v>
+        <v>425458</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3465110951295247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3175569318674715</v>
+        <v>0.3179004821395379</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3750697771057007</v>
+        <v>0.3813484865576596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>704</v>
@@ -3175,19 +3175,19 @@
         <v>766476</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>718566</v>
+        <v>719979</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>814227</v>
+        <v>812261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3550848663052965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3328896180195218</v>
+        <v>0.3335442013511185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3772063407159153</v>
+        <v>0.376295620340883</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>219107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>191248</v>
+        <v>193573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248661</v>
+        <v>247894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2100933258649636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1833802732318731</v>
+        <v>0.1856092106935309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2384308551214334</v>
+        <v>0.2376953721384663</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -3225,19 +3225,19 @@
         <v>184814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>159266</v>
+        <v>160640</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212026</v>
+        <v>212225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1656533890097417</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1427537783376986</v>
+        <v>0.1439861856244436</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1900445749476765</v>
+        <v>0.1902224955997062</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>377</v>
@@ -3246,19 +3246,19 @@
         <v>403921</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>367662</v>
+        <v>366872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>445269</v>
+        <v>442472</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1871243647623856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.170326315189225</v>
+        <v>0.1699606259713938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2062793735368915</v>
+        <v>0.2049836491928495</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>193391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>168199</v>
+        <v>170558</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>217287</v>
+        <v>218315</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1854353481660149</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1612788723604614</v>
+        <v>0.1635407987582956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2083478096607426</v>
+        <v>0.2093336203640237</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>190</v>
@@ -3296,19 +3296,19 @@
         <v>204970</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>178716</v>
+        <v>181830</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>231441</v>
+        <v>233511</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1837198250266573</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1601880088054226</v>
+        <v>0.1629792286224394</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2074464014931881</v>
+        <v>0.209301958556824</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>379</v>
@@ -3317,19 +3317,19 @@
         <v>398362</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>362005</v>
+        <v>361830</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>430934</v>
+        <v>436025</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1845486730929416</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1677058332059516</v>
+        <v>0.1676244911912279</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1996384663360372</v>
+        <v>0.2019970940057686</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>60734</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46272</v>
+        <v>46287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77894</v>
+        <v>78064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05823542219080057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04436841638892165</v>
+        <v>0.04438314624187659</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07468931414593184</v>
+        <v>0.07485247156551786</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -3367,19 +3367,19 @@
         <v>72324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57435</v>
+        <v>56916</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89883</v>
+        <v>89839</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06482557575411456</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05148074396897673</v>
+        <v>0.05101538699594246</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08056478409859283</v>
+        <v>0.0805246706901212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -3388,19 +3388,19 @@
         <v>133058</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112751</v>
+        <v>109486</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>157881</v>
+        <v>160628</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06164156971411749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05223416428338799</v>
+        <v>0.05072149455556893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07314161663269499</v>
+        <v>0.07441389095501494</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>189787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>162861</v>
+        <v>165262</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>216482</v>
+        <v>217207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1819790921031638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1561608145772213</v>
+        <v>0.1584632976058477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2075755272512727</v>
+        <v>0.2082709223427878</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>240</v>
@@ -3438,19 +3438,19 @@
         <v>266968</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236336</v>
+        <v>238582</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295155</v>
+        <v>299376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2392901150799618</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.211834322983467</v>
+        <v>0.2138473943568789</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2645553360548778</v>
+        <v>0.2683383907727043</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>419</v>
@@ -3459,19 +3459,19 @@
         <v>456755</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>418059</v>
+        <v>416878</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>496844</v>
+        <v>497279</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2116005261252589</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1936737144107153</v>
+        <v>0.1931265208500233</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2301724725435785</v>
+        <v>0.2303739722358217</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>414218</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380048</v>
+        <v>385190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>444804</v>
+        <v>446822</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4247130959544065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3896781159259158</v>
+        <v>0.3949498435664874</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4560749546310458</v>
+        <v>0.4581441024377365</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>420</v>
@@ -3584,19 +3584,19 @@
         <v>447976</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>415600</v>
+        <v>416409</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>485514</v>
+        <v>482784</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4102027044451083</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3805571909858869</v>
+        <v>0.381297699468935</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4445757652232367</v>
+        <v>0.4420756756660031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>811</v>
@@ -3605,19 +3605,19 @@
         <v>862193</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>815531</v>
+        <v>810995</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>908615</v>
+        <v>908673</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.417048019051976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3944771231410407</v>
+        <v>0.3922830364934181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4395025329381235</v>
+        <v>0.439530416262107</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>216255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>190110</v>
+        <v>188231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243968</v>
+        <v>245998</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2217344888100161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1949270032292532</v>
+        <v>0.1930004285216195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2501501285561414</v>
+        <v>0.2522309762531819</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -3655,19 +3655,19 @@
         <v>202155</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>176555</v>
+        <v>175934</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230887</v>
+        <v>230562</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1851090846917378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1616684003144684</v>
+        <v>0.1610991979340905</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2114185089534845</v>
+        <v>0.2111207422210412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>390</v>
@@ -3676,19 +3676,19 @@
         <v>418410</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>378339</v>
+        <v>379465</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>453081</v>
+        <v>454372</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2023872135163549</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1830048992159822</v>
+        <v>0.1835494356097626</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.21915784265977</v>
+        <v>0.2197821993053142</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>138699</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117496</v>
+        <v>117500</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>163738</v>
+        <v>161406</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1422131847848469</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1204733380690707</v>
+        <v>0.1204767724624025</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1678869495209061</v>
+        <v>0.1654960339764708</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>163</v>
@@ -3726,19 +3726,19 @@
         <v>175784</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>152851</v>
+        <v>153069</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>200070</v>
+        <v>202359</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1609623332726153</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1399626608821634</v>
+        <v>0.1401619727938055</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1832001146624281</v>
+        <v>0.1852958354653663</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>298</v>
@@ -3747,19 +3747,19 @@
         <v>314483</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>282533</v>
+        <v>283939</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>350511</v>
+        <v>348987</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1521173741323046</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1366627512647656</v>
+        <v>0.1373427819487167</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1695440051273542</v>
+        <v>0.1688071163642145</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>26856</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17679</v>
+        <v>18491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39178</v>
+        <v>39459</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02753657409335679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01812697844110962</v>
+        <v>0.01895912345877866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0401706850094655</v>
+        <v>0.04045887278583054</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -3797,19 +3797,19 @@
         <v>67239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51538</v>
+        <v>51991</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85222</v>
+        <v>85897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06156958053995978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04719236001549932</v>
+        <v>0.04760708179061928</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0780356929313864</v>
+        <v>0.07865424588135385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -3818,19 +3818,19 @@
         <v>94095</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76551</v>
+        <v>76474</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117684</v>
+        <v>116390</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04551442200097265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03702838475791376</v>
+        <v>0.03699106314244318</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05692443377334618</v>
+        <v>0.05629874182658414</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>179261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155816</v>
+        <v>152913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>204791</v>
+        <v>206357</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1838026563573737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.159764472934251</v>
+        <v>0.1567879371642335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2099800794639677</v>
+        <v>0.2115856073641418</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>186</v>
@@ -3868,19 +3868,19 @@
         <v>198930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172207</v>
+        <v>174402</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>224530</v>
+        <v>228157</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1821562970505788</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1576866786536018</v>
+        <v>0.1596965475022034</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2055978526867685</v>
+        <v>0.2089193280222433</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>354</v>
@@ -3889,19 +3889,19 @@
         <v>378191</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342589</v>
+        <v>338125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>413121</v>
+        <v>411644</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1829329712983918</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.165712185426273</v>
+        <v>0.1635529233513515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1998288643604094</v>
+        <v>0.1991147367977374</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>355099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>325833</v>
+        <v>324274</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>385922</v>
+        <v>385262</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4011895661911534</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3681249247515214</v>
+        <v>0.3663638991649925</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4360136255002759</v>
+        <v>0.4352672354627598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>349</v>
@@ -4014,19 +4014,19 @@
         <v>365399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>337702</v>
+        <v>335253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>394848</v>
+        <v>392683</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4180810386753734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3863909371153125</v>
+        <v>0.3835881720899113</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.451776350680092</v>
+        <v>0.4492982553561958</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>685</v>
@@ -4035,19 +4035,19 @@
         <v>720498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>678849</v>
+        <v>679764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>762821</v>
+        <v>763810</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4095818944228354</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3859056753852907</v>
+        <v>0.3864255607076402</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4336411194135197</v>
+        <v>0.4342034840029064</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>195718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171771</v>
+        <v>171477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>221214</v>
+        <v>221702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2211216703648703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1940662372921433</v>
+        <v>0.1937340836270404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2499262969655601</v>
+        <v>0.2504779620179303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -4085,19 +4085,19 @@
         <v>169081</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>145496</v>
+        <v>145935</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>193156</v>
+        <v>195983</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1934587977423224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1664733499350695</v>
+        <v>0.1669749449080219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2210049371971669</v>
+        <v>0.2242389137059788</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>342</v>
@@ -4106,19 +4106,19 @@
         <v>364799</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>329908</v>
+        <v>331752</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400120</v>
+        <v>400216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2073776994294465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1875431272958517</v>
+        <v>0.1885914506586033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2274565013083834</v>
+        <v>0.2275112463810683</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>170575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>147909</v>
+        <v>147822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198716</v>
+        <v>194966</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1927150727714732</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1671074885321499</v>
+        <v>0.1670091790362739</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.224509105291191</v>
+        <v>0.2202724994439791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>114</v>
@@ -4156,19 +4156,19 @@
         <v>123062</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>102546</v>
+        <v>103056</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>145213</v>
+        <v>146738</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1408045154080438</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1173311764564012</v>
+        <v>0.1179138057251392</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1661494214611788</v>
+        <v>0.167893894564408</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>272</v>
@@ -4177,19 +4177,19 @@
         <v>293637</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>260153</v>
+        <v>262222</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>325821</v>
+        <v>328392</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1669239265886618</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1478893825388573</v>
+        <v>0.1490655232774417</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1852195685542254</v>
+        <v>0.1866810855076862</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>43530</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32052</v>
+        <v>31337</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59003</v>
+        <v>58233</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04917961005039032</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03621224959712635</v>
+        <v>0.03540414580540591</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06666109502081792</v>
+        <v>0.06579100249334835</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -4227,19 +4227,19 @@
         <v>57433</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44048</v>
+        <v>43839</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74571</v>
+        <v>74360</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0657130538245405</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05039885813218845</v>
+        <v>0.05015928037359134</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08532290022022346</v>
+        <v>0.08508131946266478</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -4248,19 +4248,19 @@
         <v>100962</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83933</v>
+        <v>81440</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>124004</v>
+        <v>121984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05739405595392839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04771358066947006</v>
+        <v>0.04629631620155211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07049254365023427</v>
+        <v>0.06934458505776579</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>120193</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98294</v>
+        <v>97430</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141405</v>
+        <v>141626</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1357940806221128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1110521934623333</v>
+        <v>0.1100764918218053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1597586393717022</v>
+        <v>0.1600084392803053</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -4298,19 +4298,19 @@
         <v>159016</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134087</v>
+        <v>134595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>181522</v>
+        <v>182666</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1819425943497198</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1534188121620467</v>
+        <v>0.1540005789678361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2076935811403787</v>
+        <v>0.2090016110418621</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>256</v>
@@ -4319,19 +4319,19 @@
         <v>279210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>248806</v>
+        <v>250929</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>309716</v>
+        <v>316942</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1587224236051279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1414389997309749</v>
+        <v>0.1426456608417071</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1760645010616124</v>
+        <v>0.1801723796553283</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>196586</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>172187</v>
+        <v>173531</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>220228</v>
+        <v>220146</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3915608330282816</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3429636553644358</v>
+        <v>0.345639296872726</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4386512020935525</v>
+        <v>0.4384883806237699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -4444,19 +4444,19 @@
         <v>172650</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151108</v>
+        <v>151330</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194984</v>
+        <v>194349</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3830170767668645</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3352272955275409</v>
+        <v>0.3357188342071246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4325627617178634</v>
+        <v>0.4311539925336026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>337</v>
@@ -4465,19 +4465,19 @@
         <v>369237</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>335591</v>
+        <v>337927</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>400972</v>
+        <v>397594</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3875189210546338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3522070215670808</v>
+        <v>0.3546593452047111</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4208253873130182</v>
+        <v>0.4172807211889583</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>105648</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87335</v>
+        <v>86125</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>127953</v>
+        <v>125423</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2104301958499133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1739546280077742</v>
+        <v>0.1715443757618099</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2548577789512805</v>
+        <v>0.2498184519673892</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>82</v>
@@ -4515,19 +4515,19 @@
         <v>86065</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70253</v>
+        <v>70047</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>105433</v>
+        <v>104407</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.19093196731618</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1558525071170702</v>
+        <v>0.1553965732120765</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2338983333703047</v>
+        <v>0.231621543401022</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>178</v>
@@ -4536,19 +4536,19 @@
         <v>191713</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>166887</v>
+        <v>169429</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>218935</v>
+        <v>220573</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2012059014103216</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1751502697311907</v>
+        <v>0.1778184622220643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2297749699754419</v>
+        <v>0.231494233713488</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>85115</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>68559</v>
+        <v>68055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>106033</v>
+        <v>104764</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1695318072706839</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1365554001489166</v>
+        <v>0.1355514876372607</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.211196332288991</v>
+        <v>0.208669548624631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>63</v>
@@ -4586,19 +4586,19 @@
         <v>70182</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55141</v>
+        <v>55180</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>88077</v>
+        <v>87000</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1556967481711035</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1223284785566534</v>
+        <v>0.1224135991675598</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1953955631968727</v>
+        <v>0.1930064215786212</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>138</v>
@@ -4607,19 +4607,19 @@
         <v>155297</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>131206</v>
+        <v>133170</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>181761</v>
+        <v>182279</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1629866660798883</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1377027250148141</v>
+        <v>0.1397634150776287</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1907602952701316</v>
+        <v>0.1913048372222989</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>23623</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15701</v>
+        <v>14971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34876</v>
+        <v>34204</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04705196592059418</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03127321731985578</v>
+        <v>0.02982019819416576</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0694666266653081</v>
+        <v>0.06812711204836534</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -4657,19 +4657,19 @@
         <v>31192</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21744</v>
+        <v>21487</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45131</v>
+        <v>44791</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06919832479717765</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04823882735619015</v>
+        <v>0.0476673848343678</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1001208108369734</v>
+        <v>0.09936736215937754</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -4678,19 +4678,19 @@
         <v>54815</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41779</v>
+        <v>42554</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>71335</v>
+        <v>71287</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05752904770723164</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04384746354181023</v>
+        <v>0.0446608326597241</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07486707276654191</v>
+        <v>0.07481634576267811</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>91086</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>73869</v>
+        <v>75178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111001</v>
+        <v>110522</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.181425197930527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.147132694240869</v>
+        <v>0.1497401637531556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2210932775548526</v>
+        <v>0.2201386455516824</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>80</v>
@@ -4728,19 +4728,19 @@
         <v>90674</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73450</v>
+        <v>72202</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>110116</v>
+        <v>108906</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2011558829486743</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.16294542261144</v>
+        <v>0.1601769824471277</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2442870133106308</v>
+        <v>0.2416021607672883</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>166</v>
@@ -4749,19 +4749,19 @@
         <v>181760</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>156969</v>
+        <v>158059</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>208318</v>
+        <v>210740</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1907594637479245</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1647412521052273</v>
+        <v>0.1658855536939446</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2186324806290506</v>
+        <v>0.2211742970935939</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>1345788</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1289049</v>
+        <v>1289236</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1407570</v>
+        <v>1407632</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3951962854584768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.378534720286624</v>
+        <v>0.3785895245251693</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4133387031295159</v>
+        <v>0.4133570291391627</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1283</v>
@@ -4874,19 +4874,19 @@
         <v>1372616</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1313459</v>
+        <v>1316176</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1437026</v>
+        <v>1433982</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3885672677453446</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3718207317513562</v>
+        <v>0.3725899103533127</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4068006097446746</v>
+        <v>0.4059391305797875</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2537</v>
@@ -4895,19 +4895,19 @@
         <v>2718404</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2637233</v>
+        <v>2642076</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2801940</v>
+        <v>2806966</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.391821036377584</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3801213225592911</v>
+        <v>0.3808193687425361</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4038615677664713</v>
+        <v>0.4045859529786891</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>736729</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>686418</v>
+        <v>689016</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>786171</v>
+        <v>787077</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.216343453881854</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2015695762149252</v>
+        <v>0.2023324579080449</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2308623550954914</v>
+        <v>0.231128587627888</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>597</v>
@@ -4945,19 +4945,19 @@
         <v>642115</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>593755</v>
+        <v>590434</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>690274</v>
+        <v>691416</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1817732817219901</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1680832815726448</v>
+        <v>0.1671431004670811</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1954064420930575</v>
+        <v>0.1957294729272498</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1287</v>
@@ -4966,19 +4966,19 @@
         <v>1378844</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1315385</v>
+        <v>1307428</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1447849</v>
+        <v>1449202</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1987416089542509</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.189594904694554</v>
+        <v>0.1884479364227763</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.208687826298336</v>
+        <v>0.2088827240581704</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>587780</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>548328</v>
+        <v>543813</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>635727</v>
+        <v>633216</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1726040798505724</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1610188108168662</v>
+        <v>0.1596930546638586</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1866839000380857</v>
+        <v>0.1859466386314264</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>530</v>
@@ -5016,19 +5016,19 @@
         <v>573999</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>528708</v>
+        <v>530119</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>621377</v>
+        <v>619424</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1624905624256488</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1496694461122516</v>
+        <v>0.1500687593521786</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1759026467342429</v>
+        <v>0.1753498622232401</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1087</v>
@@ -5037,19 +5037,19 @@
         <v>1161779</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1096757</v>
+        <v>1094844</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1224839</v>
+        <v>1220367</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1674546532129812</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1580826536193356</v>
+        <v>0.1578068844350219</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1765439487861322</v>
+        <v>0.1758993949756523</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>154743</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>130255</v>
+        <v>132578</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>182828</v>
+        <v>182762</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04544079148484312</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03824987593625567</v>
+        <v>0.03893198566476335</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05368808618786361</v>
+        <v>0.05366894892026772</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>212</v>
@@ -5087,19 +5087,19 @@
         <v>228188</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>198186</v>
+        <v>198750</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>260876</v>
+        <v>260699</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06459653349086773</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0561034064199802</v>
+        <v>0.05626308195523238</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0738501310920409</v>
+        <v>0.07380010572271516</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>359</v>
@@ -5108,19 +5108,19 @@
         <v>382930</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>344172</v>
+        <v>348641</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>424898</v>
+        <v>423250</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0551941823185365</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04960771422148152</v>
+        <v>0.05025189660443278</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06124328957642378</v>
+        <v>0.06100571153196852</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>580327</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>530672</v>
+        <v>530445</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>627961</v>
+        <v>621281</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1704153893242536</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1558340793527739</v>
+        <v>0.1557674702292342</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1844033345261254</v>
+        <v>0.1824418897057818</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>654</v>
@@ -5158,19 +5158,19 @@
         <v>715588</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>663407</v>
+        <v>670974</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>763399</v>
+        <v>769742</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2025723546161488</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1878007371099658</v>
+        <v>0.1899427407943673</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2161069074292046</v>
+        <v>0.2179024126355125</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1195</v>
@@ -5179,19 +5179,19 @@
         <v>1295915</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1232500</v>
+        <v>1230990</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1363099</v>
+        <v>1369880</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1867885191366475</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1776482001674018</v>
+        <v>0.1774304612665865</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1964722591374464</v>
+        <v>0.1974495231994606</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>300012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>268788</v>
+        <v>268903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>331492</v>
+        <v>329052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2667098766227953</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2389514943144</v>
+        <v>0.2390539294573802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2946956000986281</v>
+        <v>0.2925259113711357</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>323</v>
@@ -5544,19 +5544,19 @@
         <v>345299</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>311804</v>
+        <v>315126</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>377794</v>
+        <v>379633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.275150297444982</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2484600165429305</v>
+        <v>0.2511073367722038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3010441674524558</v>
+        <v>0.302509190694862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>606</v>
@@ -5565,19 +5565,19 @@
         <v>645311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>602900</v>
+        <v>603374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>692655</v>
+        <v>693366</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2711607676184176</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2533395281649193</v>
+        <v>0.2535386818269397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2910544788994373</v>
+        <v>0.291353510307033</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>419018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>386724</v>
+        <v>385811</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>454690</v>
+        <v>455010</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3725050428304061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3437960980616374</v>
+        <v>0.3429842626391799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4042181201185062</v>
+        <v>0.4045022714170567</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>414</v>
@@ -5615,19 +5615,19 @@
         <v>437723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>403247</v>
+        <v>403947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>472831</v>
+        <v>473523</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3487976119799712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.321326222188934</v>
+        <v>0.321883743463919</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3767733174129785</v>
+        <v>0.3773253897650748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>814</v>
@@ -5636,19 +5636,19 @@
         <v>856740</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>803916</v>
+        <v>808992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>903623</v>
+        <v>905622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3600033924121983</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3378067585453285</v>
+        <v>0.3399395546714815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3797036705675593</v>
+        <v>0.3805436533714486</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>237476</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>210542</v>
+        <v>210962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>267364</v>
+        <v>265474</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2111153226085291</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1871706990524244</v>
+        <v>0.1875442918941527</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2376855116374737</v>
+        <v>0.2360054571166795</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>223</v>
@@ -5686,19 +5686,19 @@
         <v>230094</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>202982</v>
+        <v>203854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>258755</v>
+        <v>259496</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1833491801454559</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.161745349098311</v>
+        <v>0.1624400129210219</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2061877714693967</v>
+        <v>0.2067780794542499</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>444</v>
@@ -5707,19 +5707,19 @@
         <v>467570</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>430555</v>
+        <v>428510</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>507116</v>
+        <v>504758</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1964733899282054</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1809196285314154</v>
+        <v>0.1800605473945539</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2130909547517663</v>
+        <v>0.2121000014003196</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>43621</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32120</v>
+        <v>30618</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58252</v>
+        <v>57481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03877875030257213</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02855442045691224</v>
+        <v>0.02721889581392249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05178618943530484</v>
+        <v>0.05110041884878839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -5757,19 +5757,19 @@
         <v>56502</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43457</v>
+        <v>43228</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73307</v>
+        <v>73062</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04502358135959194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03462851386070019</v>
+        <v>0.03444582458556782</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0584146396893943</v>
+        <v>0.05821931165246702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -5778,19 +5778,19 @@
         <v>100123</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79689</v>
+        <v>82089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122692</v>
+        <v>121488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0420718399371327</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03348540221788995</v>
+        <v>0.0344937692799335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05155518712183218</v>
+        <v>0.05104958777521929</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>124737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>105703</v>
+        <v>105307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145920</v>
+        <v>147879</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1108910076356975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09396913857988981</v>
+        <v>0.09361717495486287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1297227221285576</v>
+        <v>0.1314638876517796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>169</v>
@@ -5828,19 +5828,19 @@
         <v>185330</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>160681</v>
+        <v>159120</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212442</v>
+        <v>212081</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1476793290699991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1280382523588451</v>
+        <v>0.1267941828104583</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1692837493613862</v>
+        <v>0.1689960641166096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>288</v>
@@ -5849,19 +5849,19 @@
         <v>310067</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>278228</v>
+        <v>278489</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>349029</v>
+        <v>344988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.130290610104046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.116911691904696</v>
+        <v>0.1170212894396438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1466625309425988</v>
+        <v>0.1449645790554439</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>201119</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177351</v>
+        <v>177312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>227326</v>
+        <v>227600</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2220429367133601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1958027587069145</v>
+        <v>0.1957587927497179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2509761109375077</v>
+        <v>0.2512790870808231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -5974,19 +5974,19 @@
         <v>207766</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182269</v>
+        <v>181702</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>235669</v>
+        <v>233223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2073237865694721</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1818808282071826</v>
+        <v>0.1813145549835776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2351668159129023</v>
+        <v>0.2327262774616057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>387</v>
@@ -5995,19 +5995,19 @@
         <v>408885</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374796</v>
+        <v>373420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>445527</v>
+        <v>442481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2143116254885347</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1964440819890024</v>
+        <v>0.1957229299504291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2335166565672563</v>
+        <v>0.2319203468078667</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>314801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>285982</v>
+        <v>284575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>344351</v>
+        <v>342043</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3475523108328929</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3157346424494975</v>
+        <v>0.3141816283474373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.380176828277892</v>
+        <v>0.3776284959653301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -6045,19 +6045,19 @@
         <v>328351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>299788</v>
+        <v>299501</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>360905</v>
+        <v>357103</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3276514849906816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2991490677157949</v>
+        <v>0.2988633267762904</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3601356612221868</v>
+        <v>0.3563425685817248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -6066,19 +6066,19 @@
         <v>643152</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604519</v>
+        <v>602304</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>685756</v>
+        <v>688802</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3370992971253675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3168504304778051</v>
+        <v>0.3156894445904632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3594296773253662</v>
+        <v>0.3610262386271747</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>235419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>207152</v>
+        <v>210626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>262849</v>
+        <v>262706</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2599118989651507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.22870403151425</v>
+        <v>0.2325389899200504</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2901954635681939</v>
+        <v>0.2900376510093282</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>204</v>
@@ -6116,19 +6116,19 @@
         <v>205811</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>181034</v>
+        <v>181580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>230732</v>
+        <v>229806</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2053726294187029</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1806487413680877</v>
+        <v>0.1811931575506665</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2302406878562181</v>
+        <v>0.2293167385023667</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>436</v>
@@ -6137,19 +6137,19 @@
         <v>441230</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>405129</v>
+        <v>407957</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>476560</v>
+        <v>479398</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2312648600589455</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2123430054687639</v>
+        <v>0.2138248328882512</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2497825097584929</v>
+        <v>0.2512697165543968</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>43791</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32792</v>
+        <v>31439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60466</v>
+        <v>57962</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04834726490487341</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03620400745918305</v>
+        <v>0.03471024189276622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06675683289939771</v>
+        <v>0.06399177009410245</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -6187,19 +6187,19 @@
         <v>74479</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57809</v>
+        <v>59047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93289</v>
+        <v>92840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07432035244158518</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05768565017331599</v>
+        <v>0.05892164491863121</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09309043589362727</v>
+        <v>0.09264242387908091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -6208,19 +6208,19 @@
         <v>118270</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97191</v>
+        <v>98681</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>140944</v>
+        <v>140112</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06198976608550968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05094126480669267</v>
+        <v>0.05172202522345525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07387363463030486</v>
+        <v>0.07343776436163718</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>110635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90072</v>
+        <v>91677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131083</v>
+        <v>129372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1221455885837228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09944296117038964</v>
+        <v>0.1012145399161687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1447209350759452</v>
+        <v>0.1428318518205932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>169</v>
@@ -6258,19 +6258,19 @@
         <v>185727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160483</v>
+        <v>162183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213947</v>
+        <v>212980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1853317465795582</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.160140653649564</v>
+        <v>0.1618370552740856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2134909658660974</v>
+        <v>0.2125259681351287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>279</v>
@@ -6279,19 +6279,19 @@
         <v>296363</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263480</v>
+        <v>265641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330837</v>
+        <v>329192</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1553344512416426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1380994790362321</v>
+        <v>0.1392318731149533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1734035131627779</v>
+        <v>0.1725416614127807</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>182242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160212</v>
+        <v>157906</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210318</v>
+        <v>207533</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2217647521161066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1949567892806937</v>
+        <v>0.1921505793229594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2559294286357565</v>
+        <v>0.2525403344096189</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>125</v>
@@ -6404,19 +6404,19 @@
         <v>137143</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>114693</v>
+        <v>114515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160183</v>
+        <v>160425</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1782097822084021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1490372327552852</v>
+        <v>0.1488064947215018</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2081496961538749</v>
+        <v>0.2084635108095907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>294</v>
@@ -6425,19 +6425,19 @@
         <v>319385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>286483</v>
+        <v>287626</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>356395</v>
+        <v>354635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2007019356631586</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1800262571880956</v>
+        <v>0.1807445741780766</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2239592732015199</v>
+        <v>0.2228530376671838</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>229342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206794</v>
+        <v>202495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>255936</v>
+        <v>255828</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2790786212750168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.251641080011358</v>
+        <v>0.2464101861729305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3114408663152685</v>
+        <v>0.3113094517677824</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -6475,19 +6475,19 @@
         <v>198557</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176022</v>
+        <v>175847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225814</v>
+        <v>225803</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2580143117394943</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2287315791408035</v>
+        <v>0.2285043161610474</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2934335735663894</v>
+        <v>0.2934191102467041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>412</v>
@@ -6496,19 +6496,19 @@
         <v>427899</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393133</v>
+        <v>394934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>464264</v>
+        <v>469424</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2688920986716271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2470454372204721</v>
+        <v>0.2481768410147426</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2917438579056302</v>
+        <v>0.2949864541264804</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>208818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>184120</v>
+        <v>183559</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>236204</v>
+        <v>234802</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2541039220566391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2240494443150048</v>
+        <v>0.2233668249406127</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2874292634809271</v>
+        <v>0.2857232792015674</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>192</v>
@@ -6546,19 +6546,19 @@
         <v>195358</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>169437</v>
+        <v>172309</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>219810</v>
+        <v>219514</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2538576965108083</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2201746462242725</v>
+        <v>0.2239060307117263</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2856314517275451</v>
+        <v>0.2852466673631668</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>393</v>
@@ -6567,19 +6567,19 @@
         <v>404176</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>371980</v>
+        <v>369684</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>439915</v>
+        <v>440247</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2539848494573732</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2337528360905765</v>
+        <v>0.2323098502546043</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2764428297412952</v>
+        <v>0.2766517132932009</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>70683</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55684</v>
+        <v>55462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86630</v>
+        <v>90316</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08601160074815778</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06776013103343871</v>
+        <v>0.06748963745669083</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1054178920470582</v>
+        <v>0.1099026487276035</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -6617,19 +6617,19 @@
         <v>53460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40387</v>
+        <v>40040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70259</v>
+        <v>69794</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06946900966727061</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05248034777113787</v>
+        <v>0.05202923978406919</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09129806937419345</v>
+        <v>0.09069398143438602</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -6638,19 +6638,19 @@
         <v>124143</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103857</v>
+        <v>103085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>148661</v>
+        <v>146122</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07801174308940492</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06526403967484727</v>
+        <v>0.06477877891736676</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09341865040911469</v>
+        <v>0.09182294400337425</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>130697</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111404</v>
+        <v>110329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152639</v>
+        <v>154660</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1590411038040798</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1355643412350216</v>
+        <v>0.1342553958072345</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1857417088464343</v>
+        <v>0.1882013837253141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>171</v>
@@ -6688,19 +6688,19 @@
         <v>185040</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>161592</v>
+        <v>161256</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210426</v>
+        <v>211375</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2404491998740247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2099807973062324</v>
+        <v>0.2095436319381355</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2734378226329073</v>
+        <v>0.2746703426323105</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>296</v>
@@ -6709,19 +6709,19 @@
         <v>315737</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>285545</v>
+        <v>283551</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>351963</v>
+        <v>346941</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1984093731184363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.179436950384604</v>
+        <v>0.1781836437005264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2211740783823817</v>
+        <v>0.2180179649514064</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>138609</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>118602</v>
+        <v>118191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160689</v>
+        <v>161068</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2768843164905502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2369202212010481</v>
+        <v>0.2360974716656292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3209923105409942</v>
+        <v>0.3217492280977704</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -6834,19 +6834,19 @@
         <v>144240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>124518</v>
+        <v>125169</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>167908</v>
+        <v>168538</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2957813324420525</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2553390036323839</v>
+        <v>0.2566755538752121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3443155246767947</v>
+        <v>0.3456090125233932</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -6855,19 +6855,19 @@
         <v>282848</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>252224</v>
+        <v>254503</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>313074</v>
+        <v>312654</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2862090661479678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2552213952785485</v>
+        <v>0.2575272345080679</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3167936686773913</v>
+        <v>0.3163692021840758</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>129695</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>109461</v>
+        <v>110175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>150269</v>
+        <v>151417</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.259079087792683</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2186596425504977</v>
+        <v>0.2200857759623693</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3001773485063087</v>
+        <v>0.3024695475693693</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>91</v>
@@ -6905,19 +6905,19 @@
         <v>96864</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>79712</v>
+        <v>79254</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>116465</v>
+        <v>117696</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.19863221405599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1634593605663964</v>
+        <v>0.1625195539699012</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2388269808445862</v>
+        <v>0.2413509528700711</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>213</v>
@@ -6926,19 +6926,19 @@
         <v>226559</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>200562</v>
+        <v>198593</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>255641</v>
+        <v>253794</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2292515231330159</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2029447307812393</v>
+        <v>0.2009525643246758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2586784625588521</v>
+        <v>0.256809387111156</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>86160</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>68513</v>
+        <v>68688</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105831</v>
+        <v>102853</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1721132281439096</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1368612930260776</v>
+        <v>0.1372115303581365</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2114077245913904</v>
+        <v>0.2054587802733768</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -6976,19 +6976,19 @@
         <v>66550</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>51430</v>
+        <v>53877</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>81585</v>
+        <v>83938</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1364686485332827</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1054644302750915</v>
+        <v>0.1104812781694126</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1673005643838942</v>
+        <v>0.1721245043415849</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -6997,19 +6997,19 @@
         <v>152710</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>133263</v>
+        <v>129232</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>178143</v>
+        <v>176293</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1545243780119095</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1348463241803464</v>
+        <v>0.1307679448068486</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1802592862189521</v>
+        <v>0.1783882576821229</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>29988</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20151</v>
+        <v>20294</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41817</v>
+        <v>41219</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05990439657286065</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04025353054500546</v>
+        <v>0.04053838626236925</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08353430068411173</v>
+        <v>0.08233885167802743</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -7047,19 +7047,19 @@
         <v>40612</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27952</v>
+        <v>28881</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53702</v>
+        <v>53912</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08327995018833914</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05731817472983277</v>
+        <v>0.05922326930609247</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.110122955978502</v>
+        <v>0.1105541211156551</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -7068,19 +7068,19 @@
         <v>70600</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54988</v>
+        <v>56006</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>88025</v>
+        <v>86769</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07143908470178464</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05564115461916391</v>
+        <v>0.05667130983448232</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08907061280350514</v>
+        <v>0.08779977979587192</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>116149</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>99979</v>
+        <v>97921</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139048</v>
+        <v>136635</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2320189709999966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1997181713525957</v>
+        <v>0.1956073067949635</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2777618893177943</v>
+        <v>0.2729418939359605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>129</v>
@@ -7118,19 +7118,19 @@
         <v>139391</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>117919</v>
+        <v>118643</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>160264</v>
+        <v>157818</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2858378547803357</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2418076231116545</v>
+        <v>0.2432931957691889</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3286406555227417</v>
+        <v>0.3236257742604229</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>237</v>
@@ -7139,19 +7139,19 @@
         <v>255539</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>227837</v>
+        <v>229335</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>284465</v>
+        <v>284253</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2585759480053222</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2305439199173831</v>
+        <v>0.232059754173252</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2878456404469171</v>
+        <v>0.2876309872731354</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>821982</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>767688</v>
+        <v>770494</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>874402</v>
+        <v>873570</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.245147314477962</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2289546003500131</v>
+        <v>0.2297916663549382</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2607810863210948</v>
+        <v>0.2605328942771575</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>771</v>
@@ -7264,19 +7264,19 @@
         <v>834448</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>788738</v>
+        <v>780935</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>888416</v>
+        <v>889085</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2374437824507638</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2244370288138595</v>
+        <v>0.2222164950763321</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2528005907263331</v>
+        <v>0.2529909832682402</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1543</v>
@@ -7285,19 +7285,19 @@
         <v>1656430</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1585774</v>
+        <v>1585482</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1737655</v>
+        <v>1721902</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2412050864260625</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2309164153174528</v>
+        <v>0.2308739464009885</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.25303297612183</v>
+        <v>0.2507390139627885</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>1092855</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1037824</v>
+        <v>1040804</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1153402</v>
+        <v>1148647</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3259324321000478</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3095197913155563</v>
+        <v>0.3104085374164839</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3439899033270621</v>
+        <v>0.342571656469781</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1006</v>
@@ -7335,19 +7335,19 @@
         <v>1061495</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1012982</v>
+        <v>1008281</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1114986</v>
+        <v>1114703</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3020504393108684</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.288245924706411</v>
+        <v>0.2869085296652673</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3172715321289301</v>
+        <v>0.31719099404391</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2050</v>
@@ -7356,19 +7356,19 @@
         <v>2154350</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2073329</v>
+        <v>2075612</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2238142</v>
+        <v>2228907</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3137109911329223</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3019129038455809</v>
+        <v>0.3022454131867474</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3259125642114759</v>
+        <v>0.3245678351061843</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>767873</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>714441</v>
+        <v>720613</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>819076</v>
+        <v>816522</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2290099907038906</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2130743408923696</v>
+        <v>0.2149150957830981</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.244280676385581</v>
+        <v>0.2435191035266137</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>684</v>
@@ -7406,19 +7406,19 @@
         <v>697813</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>650894</v>
+        <v>652965</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>744597</v>
+        <v>743770</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1985639788208627</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1852132286803471</v>
+        <v>0.1858026315472235</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2118764630344006</v>
+        <v>0.2116413152334537</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1418</v>
@@ -7427,19 +7427,19 @@
         <v>1465686</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1395166</v>
+        <v>1394595</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1531088</v>
+        <v>1528892</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2134294593722918</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2031605420768297</v>
+        <v>0.2030773980534284</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2229531487252772</v>
+        <v>0.222633312586692</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>188083</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>161926</v>
+        <v>162207</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>215834</v>
+        <v>213664</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05609375474637345</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04829257122317831</v>
+        <v>0.04837646005941122</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0643700538868109</v>
+        <v>0.06372286920668233</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>212</v>
@@ -7477,19 +7477,19 @@
         <v>225054</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>197614</v>
+        <v>194683</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>254679</v>
+        <v>253289</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06403946936305341</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05623142831464911</v>
+        <v>0.0553975326716574</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07246930755371084</v>
+        <v>0.07207387025343293</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>391</v>
@@ -7498,19 +7498,19 @@
         <v>413137</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>372534</v>
+        <v>373105</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>454543</v>
+        <v>452409</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06015991802623921</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05424741646640507</v>
+        <v>0.0543306190911255</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06618935711292311</v>
+        <v>0.06587865265092586</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>482218</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>444175</v>
+        <v>440853</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>528958</v>
+        <v>523901</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1438165079717262</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1324704020009693</v>
+        <v>0.1314796396535531</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1577560007930415</v>
+        <v>0.1562479632762235</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>638</v>
@@ -7548,19 +7548,19 @@
         <v>695487</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>649942</v>
+        <v>646431</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>747291</v>
+        <v>748417</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1979023300544517</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1849421620735213</v>
+        <v>0.1839431166466509</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2126430387226821</v>
+        <v>0.212963581928743</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1100</v>
@@ -7569,19 +7569,19 @@
         <v>1177706</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1110866</v>
+        <v>1121821</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1240210</v>
+        <v>1245514</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1714945450424841</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1617614488611132</v>
+        <v>0.1633567129334884</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1805962880300586</v>
+        <v>0.1813686070923112</v>
       </c>
     </row>
     <row r="33">
